--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3948.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3948.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.202159209690204</v>
+        <v>0.6041571497917175</v>
       </c>
       <c r="B1">
-        <v>2.067339309870211</v>
+        <v>1.198070406913757</v>
       </c>
       <c r="C1">
-        <v>6.080513063282803</v>
+        <v>5.037482261657715</v>
       </c>
       <c r="D1">
-        <v>3.985051471907649</v>
+        <v>1.443938851356506</v>
       </c>
       <c r="E1">
-        <v>1.457871528276742</v>
+        <v>0.8230966329574585</v>
       </c>
     </row>
   </sheetData>
